--- a/nifi/application/config/xlsx_config/VO_UK_CONFIG.xlsx
+++ b/nifi/application/config/xlsx_config/VO_UK_CONFIG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="VO_UK" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,8 @@
     <sheet name="USEDCARSNI" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="VCARS" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="CARANDCLASSIC" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="HEYCAR" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="CINCH" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="72">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -457,8 +459,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1486,7 +1488,101 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nifi/application/config/xlsx_config/VO_UK_CONFIG.xlsx
+++ b/nifi/application/config/xlsx_config/VO_UK_CONFIG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VO_UK" sheetId="1" state="visible" r:id="rId2"/>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">expect_column_values_to_be_phone_number</t>
   </si>
   <si>
-    <t xml:space="preserve">{'country': 'UK', 'mostly': 0.9}</t>
+    <t xml:space="preserve">{'country': 'GB', 'mostly': 0.9}</t>
   </si>
   <si>
     <t xml:space="preserve">TYPE</t>
@@ -459,8 +459,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1581,8 +1581,8 @@
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
